--- a/Daily Rituals.xlsx
+++ b/Daily Rituals.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaba\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DD71C9-D1B9-4A94-BD18-D6F2F357F9BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F31C9ED-4F14-486D-AB66-073D9E15216D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19140" yWindow="1848" windowWidth="7500" windowHeight="6000" activeTab="3" xr2:uid="{EF2822AE-C848-4201-BDBB-D23B423D840F}"/>
+    <workbookView xWindow="-3708" yWindow="1212" windowWidth="7500" windowHeight="6000" activeTab="1" xr2:uid="{EF2822AE-C848-4201-BDBB-D23B423D840F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="123">
   <si>
     <t>Charles Darwin</t>
   </si>
@@ -286,6 +287,117 @@
   </si>
   <si>
     <t>cocktail hour &amp; social life + dinner with wine</t>
+  </si>
+  <si>
+    <t>how many hours do these ppl sleep on an average</t>
+  </si>
+  <si>
+    <t>which types of lectures they used to deliver or watch?</t>
+  </si>
+  <si>
+    <t>what are their professions?</t>
+  </si>
+  <si>
+    <t>what are their diet plans?</t>
+  </si>
+  <si>
+    <t>how many hours do they work?</t>
+  </si>
+  <si>
+    <t>what is their most productive time of the day?</t>
+  </si>
+  <si>
+    <t>how much time do they spend on reading and writing?</t>
+  </si>
+  <si>
+    <t>how much time do they spend with family?</t>
+  </si>
+  <si>
+    <t>which work they include in focused work?</t>
+  </si>
+  <si>
+    <t>Jaba</t>
+  </si>
+  <si>
+    <t>Somendra</t>
+  </si>
+  <si>
+    <t>Suket</t>
+  </si>
+  <si>
+    <t>Priyanjali</t>
+  </si>
+  <si>
+    <t>Abhinav</t>
+  </si>
+  <si>
+    <t>Shalini</t>
+  </si>
+  <si>
+    <t>Stuti</t>
+  </si>
+  <si>
+    <t>How much time they include in sleeping + resting(free time)</t>
+  </si>
+  <si>
+    <t>Manish</t>
+  </si>
+  <si>
+    <t>Which part of their routine is most consistent?</t>
+  </si>
+  <si>
+    <t>How many categories can I divide the 24 hr day time considering all the ppl</t>
+  </si>
+  <si>
+    <t>Do they always follow their routine strictly?</t>
+  </si>
+  <si>
+    <t>Sameer</t>
+  </si>
+  <si>
+    <t>How much time do they devote on health like walking, jogging etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">categories </t>
+  </si>
+  <si>
+    <t>data addition/ feature engg</t>
+  </si>
+  <si>
+    <t>diet plans - type food ? Time eat? How many time eating?</t>
+  </si>
+  <si>
+    <t>missing data</t>
+  </si>
+  <si>
+    <t>acuracy?</t>
+  </si>
+  <si>
+    <t>compund ques</t>
+  </si>
+  <si>
+    <t>daily data</t>
+  </si>
+  <si>
+    <t>How much time they give for lunch and breakfast?</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyse the routine of successful people, u can match ur daily routine. </t>
+  </si>
+  <si>
+    <t>predict the path of success , likelihood of u being successful in life</t>
+  </si>
+  <si>
+    <t>how their morning routines are different from each other?</t>
   </si>
 </sst>
 </file>
@@ -309,12 +421,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -329,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -342,11 +472,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -357,6 +499,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2C60C84-BA39-4EE6-B923-7FBF8E905D2C}" name="Table1" displayName="Table1" ref="A1:C17" totalsRowShown="0">
+  <autoFilter ref="A1:C17" xr:uid="{10C46F0F-B957-476D-96E9-9C1D38F8B79A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{CA3EDC7A-E014-4209-BCA2-B51AB1B00832}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{A7461A16-B5D4-4999-B7D9-1AE93D889F67}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{021E2162-1157-40C9-BBFC-619CE39114AE}" name="Column3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -658,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DF8EAC-9B06-411D-8740-5996CD4DC5DF}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,11 +968,205 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDB1443-5028-46FE-915C-AD87AF202FF6}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="62.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37326147-02B3-4E36-A0BC-9E6A1EBD7544}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -934,12 +1282,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216AF29F-F8FD-4178-9365-118A0307CE28}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1062,12 +1410,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A205AED-AA08-4E46-8D6E-5F49CCA158C5}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
